--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$165</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$165</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="571">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -700,7 +700,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongras - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
@@ -718,7 +718,7 @@
     <t xml:space="preserve">5449000233622</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
@@ -727,7 +727,7 @@
     <t xml:space="preserve">5449000233509, 5449000259462</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongras - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
@@ -1273,7 +1273,7 @@
     <t xml:space="preserve">Холодный Чай полка: Фьюз Зеленый Клубника-Малина - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
@@ -1572,10 +1572,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors </t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD</t>
@@ -1603,10 +1600,10 @@
 127</t>
   </si>
   <si>
-    <t xml:space="preserve">Min 50% Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 50% кока-кола</t>
+    <t xml:space="preserve">Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% кока-кола</t>
   </si>
   <si>
     <t xml:space="preserve">Barnd: Coca-Cola</t>
@@ -1615,6 +1612,9 @@
     <t xml:space="preserve">Coca-Cola</t>
   </si>
   <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 door cooler</t>
   </si>
   <si>
@@ -1627,7 +1627,7 @@
     <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3 </t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2- 3 полке</t>
@@ -1639,13 +1639,13 @@
 132</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Coca - Cola shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
@@ -1663,10 +1663,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU min 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skus</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -1966,8 +1963,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1985,7 +1982,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2199,7 +2196,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2210,7 +2207,7 @@
       <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2245,53 +2242,54 @@
   </sheetPr>
   <dimension ref="A1:AO165"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="H164" activeCellId="0" sqref="H164"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="73.5910931174089"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.1214574898785"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.6963562753036"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5101214574899"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="64.9068825910931"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13377,9 +13375,7 @@
       <c r="H138" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="I138" s="24" t="s">
-        <v>475</v>
-      </c>
+      <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6" t="n">
         <v>1</v>
@@ -13390,11 +13386,15 @@
       <c r="M138" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="N138" s="10"/>
+      <c r="N138" s="10" t="s">
+        <v>460</v>
+      </c>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
       <c r="Q138" s="6"/>
-      <c r="R138" s="6"/>
+      <c r="R138" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="S138" s="6"/>
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
@@ -13452,10 +13452,10 @@
         <v>317</v>
       </c>
       <c r="F139" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>84</v>
@@ -13488,7 +13488,7 @@
         <v>85</v>
       </c>
       <c r="AD139" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE139" s="8" t="n">
         <v>0.025</v>
@@ -13512,7 +13512,7 @@
         <v>124</v>
       </c>
       <c r="AL139" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM139" s="6" t="n">
         <v>312</v>
@@ -13533,10 +13533,10 @@
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>481</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>84</v>
@@ -13587,7 +13587,7 @@
         <v>125</v>
       </c>
       <c r="AL140" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM140" s="6" t="n">
         <v>124</v>
@@ -13608,10 +13608,10 @@
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>311</v>
@@ -13623,20 +13623,20 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="N141" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="N141" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="O141" s="10"/>
       <c r="P141" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q141" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>15</v>
+        <v>486</v>
       </c>
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
@@ -13656,7 +13656,7 @@
         <v>85</v>
       </c>
       <c r="AD141" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE141" s="8"/>
       <c r="AF141" s="6"/>
@@ -13708,20 +13708,20 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="N142" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="N142" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="O142" s="10"/>
       <c r="P142" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q142" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R142" s="6" t="s">
-        <v>15</v>
+        <v>486</v>
       </c>
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
@@ -13741,7 +13741,7 @@
         <v>85</v>
       </c>
       <c r="AD142" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE142" s="8"/>
       <c r="AF142" s="6"/>
@@ -13777,7 +13777,7 @@
         <v>41</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="13" t="s">
+      <c r="F143" s="6" t="s">
         <v>491</v>
       </c>
       <c r="G143" s="6" t="s">
@@ -13816,7 +13816,7 @@
         <v>85</v>
       </c>
       <c r="AD143" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE143" s="8"/>
       <c r="AF143" s="6"/>
@@ -13857,7 +13857,7 @@
       <c r="F144" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="G144" s="13" t="s">
+      <c r="G144" s="6" t="s">
         <v>495</v>
       </c>
       <c r="H144" s="6" t="s">
@@ -13870,20 +13870,20 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="N144" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="N144" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="O144" s="10"/>
       <c r="P144" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R144" s="6" t="s">
-        <v>15</v>
+        <v>486</v>
       </c>
       <c r="S144" s="6"/>
       <c r="T144" s="6"/>
@@ -13968,7 +13968,7 @@
         <v>92</v>
       </c>
       <c r="R145" s="6" t="s">
-        <v>15</v>
+        <v>486</v>
       </c>
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
@@ -14031,11 +14031,9 @@
         <v>501</v>
       </c>
       <c r="H146" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="I146" s="13" t="s">
         <v>502</v>
       </c>
+      <c r="I146" s="6"/>
       <c r="J146" s="6" t="n">
         <v>2</v>
       </c>
@@ -14053,7 +14051,7 @@
         <v>92</v>
       </c>
       <c r="R146" s="6" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="S146" s="6"/>
       <c r="T146" s="6"/>
@@ -14110,13 +14108,13 @@
         <v>317</v>
       </c>
       <c r="F147" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="G147" s="6" t="s">
+      <c r="H147" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
@@ -14189,10 +14187,10 @@
         <v>317</v>
       </c>
       <c r="F148" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>453</v>
@@ -14216,7 +14214,7 @@
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
       <c r="W148" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
@@ -14266,13 +14264,13 @@
         <v>317</v>
       </c>
       <c r="F149" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="G149" s="6" t="s">
+      <c r="H149" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>511</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6" t="n">
@@ -14301,7 +14299,7 @@
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
       <c r="W149" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
@@ -14312,13 +14310,13 @@
         <v>85</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AE149" s="8"/>
       <c r="AF149" s="6"/>
       <c r="AG149" s="6"/>
       <c r="AH149" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AI149" s="6"/>
       <c r="AJ149" s="6" t="n">
@@ -14349,10 +14347,10 @@
         <v>317</v>
       </c>
       <c r="F150" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>84</v>
@@ -14395,7 +14393,7 @@
         <v>136</v>
       </c>
       <c r="AL150" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM150" s="6" t="n">
         <v>400</v>
@@ -14418,13 +14416,13 @@
         <v>317</v>
       </c>
       <c r="F151" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="G151" s="6" t="s">
+      <c r="H151" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6" t="n">
@@ -14434,7 +14432,7 @@
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
       <c r="N151" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
@@ -14450,7 +14448,7 @@
       <c r="V151" s="6"/>
       <c r="W151" s="6"/>
       <c r="X151" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Y151" s="6"/>
       <c r="Z151" s="14"/>
@@ -14497,13 +14495,13 @@
         <v>317</v>
       </c>
       <c r="F152" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="G152" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="H152" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6" t="n">
@@ -14513,7 +14511,7 @@
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
       <c r="N152" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
@@ -14529,7 +14527,7 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y152" s="6"/>
       <c r="Z152" s="14"/>
@@ -14574,13 +14572,13 @@
         <v>317</v>
       </c>
       <c r="F153" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G153" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="G153" s="6" t="s">
-        <v>525</v>
-      </c>
       <c r="H153" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6" t="n">
@@ -14590,7 +14588,7 @@
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
       <c r="N153" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
@@ -14606,7 +14604,7 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Y153" s="6"/>
       <c r="Z153" s="14"/>
@@ -14651,13 +14649,13 @@
         <v>317</v>
       </c>
       <c r="F154" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="G154" s="6" t="s">
-        <v>528</v>
-      </c>
       <c r="H154" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6" t="n">
@@ -14667,7 +14665,7 @@
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
       <c r="N154" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
@@ -14683,7 +14681,7 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y154" s="6"/>
       <c r="Z154" s="14"/>
@@ -14724,22 +14722,22 @@
         <v>40</v>
       </c>
       <c r="D155" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E155" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="E155" s="26" t="s">
+      <c r="F155" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="F155" s="26" t="s">
+      <c r="G155" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="G155" s="26" t="s">
+      <c r="H155" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H155" s="6" t="s">
+      <c r="I155" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
@@ -14751,7 +14749,7 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
@@ -14789,22 +14787,22 @@
         <v>40</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E156" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F156" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="G156" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="G156" s="15" t="s">
-        <v>539</v>
-      </c>
       <c r="H156" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="I156" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="I156" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
@@ -14816,7 +14814,7 @@
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
@@ -14839,7 +14837,7 @@
         <v>142</v>
       </c>
       <c r="AL156" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AM156" s="6"/>
     </row>
@@ -14854,36 +14852,36 @@
         <v>40</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E157" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="F157" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="F157" s="26" t="s">
+      <c r="G157" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="H157" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="G157" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="H157" s="6" t="s">
+      <c r="I157" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
       <c r="N157" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
@@ -14919,22 +14917,22 @@
         <v>40</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E158" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="F158" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="F158" s="26" t="s">
+      <c r="G158" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="G158" s="26" t="s">
+      <c r="H158" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="H158" s="6" t="s">
+      <c r="I158" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
@@ -14946,7 +14944,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
       <c r="S158" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
@@ -14982,22 +14980,22 @@
         <v>40</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E159" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="F159" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="F159" s="26" t="s">
+      <c r="G159" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="G159" s="26" t="s">
+      <c r="H159" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="H159" s="6" t="s">
-        <v>554</v>
-      </c>
       <c r="I159" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
@@ -15009,7 +15007,7 @@
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
       <c r="S159" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
@@ -15047,36 +15045,36 @@
         <v>40</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E160" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="F160" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="F160" s="26" t="s">
+      <c r="G160" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="G160" s="26" t="s">
+      <c r="H160" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="H160" s="6" t="s">
-        <v>558</v>
-      </c>
       <c r="I160" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
       <c r="N160" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
       <c r="S160" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
@@ -15112,22 +15110,22 @@
         <v>40</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E161" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="F161" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="F161" s="26" t="s">
+      <c r="G161" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="H161" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="H161" s="6" t="s">
-        <v>564</v>
-      </c>
       <c r="I161" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -15141,7 +15139,7 @@
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
       <c r="S161" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
@@ -15177,38 +15175,38 @@
         <v>40</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E162" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="F162" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="F162" s="26" t="s">
+      <c r="G162" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="G162" s="26" t="s">
-        <v>567</v>
-      </c>
       <c r="H162" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I162" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="N162" s="12" t="s">
         <v>568</v>
-      </c>
-      <c r="N162" s="12" t="s">
-        <v>569</v>
       </c>
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
       <c r="S162" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
@@ -15246,38 +15244,38 @@
         <v>40</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E163" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="F163" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="F163" s="26" t="s">
+      <c r="G163" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="G163" s="26" t="s">
-        <v>567</v>
-      </c>
       <c r="H163" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I163" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="N163" s="12" t="s">
         <v>568</v>
-      </c>
-      <c r="N163" s="12" t="s">
-        <v>569</v>
       </c>
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
       <c r="S163" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
@@ -15315,38 +15313,38 @@
         <v>40</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E164" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="F164" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="F164" s="26" t="s">
+      <c r="G164" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="G164" s="26" t="s">
-        <v>567</v>
-      </c>
       <c r="H164" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I164" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="I164" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N164" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
       <c r="S164" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
@@ -15384,38 +15382,38 @@
         <v>40</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E165" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="F165" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="F165" s="26" t="s">
+      <c r="G165" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="G165" s="26" t="s">
-        <v>567</v>
-      </c>
       <c r="H165" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I165" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N165" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
       <c r="S165" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="569">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1869,12 +1870,18 @@
     <t xml:space="preserve">OTG
 No_O_A</t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -1886,6 +1893,7 @@
     <numFmt numFmtId="172" formatCode="#,##0"/>
     <numFmt numFmtId="173" formatCode="D\-MMM"/>
     <numFmt numFmtId="174" formatCode="0%"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1937,7 +1945,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,6 +1986,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2036,7 +2050,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2189,6 +2203,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="8" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2271,55 +2301,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO164"/>
+  <dimension ref="1:165"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+      <selection pane="bottomLeft" activeCell="A165" activeCellId="0" sqref="165:165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.9878542510121"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="56.2388663967611"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="56.663967611336"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -15352,6 +15382,76 @@
       <c r="AL164" s="9"/>
       <c r="AM164" s="9"/>
     </row>
+    <row r="165" s="8" customFormat="true" ht="23.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="38" t="n">
+        <v>521</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="E165" s="39"/>
+      <c r="F165" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="G165" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="I165" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="J165" s="38"/>
+      <c r="K165" s="38"/>
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="40"/>
+      <c r="O165" s="38"/>
+      <c r="P165" s="38"/>
+      <c r="Q165" s="38"/>
+      <c r="R165" s="38"/>
+      <c r="S165" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="T165" s="38"/>
+      <c r="U165" s="38"/>
+      <c r="V165" s="38"/>
+      <c r="W165" s="38"/>
+      <c r="X165" s="38"/>
+      <c r="Y165" s="38"/>
+      <c r="Z165" s="38"/>
+      <c r="AA165" s="38"/>
+      <c r="AB165" s="38"/>
+      <c r="AC165" s="38"/>
+      <c r="AD165" s="38"/>
+      <c r="AE165" s="41"/>
+      <c r="AF165" s="38"/>
+      <c r="AG165" s="38"/>
+      <c r="AH165" s="38"/>
+      <c r="AI165" s="38"/>
+      <c r="AJ165" s="38"/>
+      <c r="AK165" s="38" t="n">
+        <v>521</v>
+      </c>
+      <c r="AL165" s="38"/>
+      <c r="AM165" s="38"/>
+      <c r="AMB165" s="0"/>
+      <c r="AMC165" s="0"/>
+      <c r="AMD165" s="0"/>
+      <c r="AME165" s="0"/>
+      <c r="AMF165" s="0"/>
+      <c r="AMG165" s="0"/>
+      <c r="AMH165" s="0"/>
+      <c r="AMI165" s="0"/>
+      <c r="AMJ165" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM164"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,6 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="567">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1870,18 +1869,12 @@
     <t xml:space="preserve">OTG
 No_O_A</t>
   </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -1893,7 +1886,6 @@
     <numFmt numFmtId="172" formatCode="#,##0"/>
     <numFmt numFmtId="173" formatCode="D\-MMM"/>
     <numFmt numFmtId="174" formatCode="0%"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1945,7 +1937,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1986,12 +1978,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2050,7 +2036,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2203,22 +2189,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="8" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2301,55 +2271,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:165"/>
+  <dimension ref="A1:AO164"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A165" activeCellId="0" sqref="165:165"/>
+      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.5587044534413"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="56.663967611336"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="88.4817813765182"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="56.2388663967611"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -15382,76 +15352,6 @@
       <c r="AL164" s="9"/>
       <c r="AM164" s="9"/>
     </row>
-    <row r="165" s="8" customFormat="true" ht="23.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="38" t="n">
-        <v>521</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D165" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="E165" s="39"/>
-      <c r="F165" s="39" t="s">
-        <v>567</v>
-      </c>
-      <c r="G165" s="39" t="s">
-        <v>568</v>
-      </c>
-      <c r="H165" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="I165" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="J165" s="38"/>
-      <c r="K165" s="38"/>
-      <c r="L165" s="38"/>
-      <c r="M165" s="38"/>
-      <c r="N165" s="40"/>
-      <c r="O165" s="38"/>
-      <c r="P165" s="38"/>
-      <c r="Q165" s="38"/>
-      <c r="R165" s="38"/>
-      <c r="S165" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="T165" s="38"/>
-      <c r="U165" s="38"/>
-      <c r="V165" s="38"/>
-      <c r="W165" s="38"/>
-      <c r="X165" s="38"/>
-      <c r="Y165" s="38"/>
-      <c r="Z165" s="38"/>
-      <c r="AA165" s="38"/>
-      <c r="AB165" s="38"/>
-      <c r="AC165" s="38"/>
-      <c r="AD165" s="38"/>
-      <c r="AE165" s="41"/>
-      <c r="AF165" s="38"/>
-      <c r="AG165" s="38"/>
-      <c r="AH165" s="38"/>
-      <c r="AI165" s="38"/>
-      <c r="AJ165" s="38"/>
-      <c r="AK165" s="38" t="n">
-        <v>521</v>
-      </c>
-      <c r="AL165" s="38"/>
-      <c r="AM165" s="38"/>
-      <c r="AMB165" s="0"/>
-      <c r="AMC165" s="0"/>
-      <c r="AMD165" s="0"/>
-      <c r="AME165" s="0"/>
-      <c r="AMF165" s="0"/>
-      <c r="AMG165" s="0"/>
-      <c r="AMH165" s="0"/>
-      <c r="AMI165" s="0"/>
-      <c r="AMJ165" s="0"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:AM164"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="569">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1869,12 +1870,18 @@
     <t xml:space="preserve">OTG
 No_O_A</t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -1886,6 +1893,7 @@
     <numFmt numFmtId="172" formatCode="#,##0"/>
     <numFmt numFmtId="173" formatCode="D\-MMM"/>
     <numFmt numFmtId="174" formatCode="0%"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1937,7 +1945,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,6 +1986,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2036,7 +2050,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2189,6 +2203,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2271,55 +2301,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO164"/>
+  <dimension ref="1:165"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="AM164" activeCellId="0" sqref="AM164:AM165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.9878542510121"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="56.2388663967611"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="56.663967611336"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -15352,6 +15382,72 @@
       <c r="AL164" s="9"/>
       <c r="AM164" s="9"/>
     </row>
+    <row r="165" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="n">
+        <v>521</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E165" s="34"/>
+      <c r="F165" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="G165" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="37"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="9"/>
+      <c r="Q165" s="9"/>
+      <c r="R165" s="9"/>
+      <c r="S165" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="T165" s="9"/>
+      <c r="U165" s="9"/>
+      <c r="V165" s="9"/>
+      <c r="W165" s="9"/>
+      <c r="X165" s="9"/>
+      <c r="Y165" s="9"/>
+      <c r="Z165" s="9"/>
+      <c r="AA165" s="9"/>
+      <c r="AB165" s="9"/>
+      <c r="AC165" s="9"/>
+      <c r="AD165" s="38"/>
+      <c r="AE165" s="9"/>
+      <c r="AF165" s="9"/>
+      <c r="AG165" s="9"/>
+      <c r="AH165" s="39"/>
+      <c r="AI165" s="40"/>
+      <c r="AJ165" s="9"/>
+      <c r="AK165" s="40" t="n">
+        <v>521</v>
+      </c>
+      <c r="AL165" s="41"/>
+      <c r="AM165" s="9"/>
+      <c r="AN165" s="0"/>
+      <c r="AO165" s="0"/>
+      <c r="AP165" s="0"/>
+      <c r="AQ165" s="0"/>
+      <c r="AMJ165" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM164"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2249,54 +2250,53 @@
   </sheetPr>
   <dimension ref="A1:AO168"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="S154" activeCellId="0" sqref="S154:S168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6234817813765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="62.8016194331984"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9311740890688"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="90.9595141700405"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="131.113360323887"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="58.0283400809717"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="27.663967611336"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.0364372469636"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.3805668016194"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="132.291497975709"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="66.2267206477733"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.5101214574899"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.91093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14637,10 +14637,10 @@
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6" t="s">
+      <c r="R154" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S154" s="6"/>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
@@ -14702,10 +14702,10 @@
       <c r="O155" s="6"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6" t="s">
+      <c r="R155" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S155" s="6"/>
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
@@ -14771,10 +14771,10 @@
       <c r="O156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6" t="s">
+      <c r="R156" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S156" s="6"/>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
@@ -14840,10 +14840,10 @@
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6" t="s">
+      <c r="R157" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S157" s="6"/>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
@@ -14909,10 +14909,10 @@
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6" t="s">
+      <c r="R158" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S158" s="6"/>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
@@ -14978,10 +14978,10 @@
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6" t="s">
+      <c r="R159" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S159" s="6"/>
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
@@ -15043,10 +15043,10 @@
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6" t="s">
+      <c r="R160" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S160" s="6"/>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
@@ -15108,10 +15108,10 @@
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6" t="s">
+      <c r="R161" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S161" s="6"/>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
@@ -15175,10 +15175,10 @@
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6" t="s">
+      <c r="R162" s="6" t="s">
         <v>559</v>
       </c>
+      <c r="S162" s="6"/>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
@@ -15242,10 +15242,10 @@
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6" t="s">
+      <c r="R163" s="6" t="s">
         <v>559</v>
       </c>
+      <c r="S163" s="6"/>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
@@ -15311,10 +15311,10 @@
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6" t="s">
+      <c r="R164" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S164" s="6"/>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
@@ -15380,10 +15380,10 @@
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6" t="s">
+      <c r="R165" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S165" s="6"/>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
@@ -15449,10 +15449,10 @@
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="6" t="s">
+      <c r="R166" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S166" s="6"/>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
@@ -15518,10 +15518,10 @@
       <c r="O167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="6" t="s">
+      <c r="R167" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S167" s="6"/>
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
@@ -15581,10 +15581,10 @@
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="6" t="s">
+      <c r="R168" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S168" s="6"/>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1603,7 +1604,7 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 door cooler</t>
+    <t xml:space="preserve">1 door cooler - Modern Trade</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -1612,7 +1613,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 30% кока-кола</t>
   </si>
   <si>
-    <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
+    <t xml:space="preserve">Company Coolers: 1st Cash Cooler, 2 door cooler - Modern Trade, Open Front - Modern Trade, Cash Cooler (Open Top) - Modern Trade, Coolers - Counter top, 1.5 door cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
@@ -1916,7 +1917,7 @@
     <numFmt numFmtId="174" formatCode="0%"/>
     <numFmt numFmtId="175" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1961,6 +1962,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2041,7 +2049,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2143,6 +2151,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="174" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2250,53 +2266,54 @@
   </sheetPr>
   <dimension ref="A1:AO168"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S154" activeCellId="0" sqref="S154:S168"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="X143" activeCellId="0" sqref="X143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="91.8016194331984"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="132.291497975709"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="92.5506072874494"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="133.46963562753"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13535,7 +13552,7 @@
       <c r="W140" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="X140" s="6" t="s">
+      <c r="X140" s="26" t="s">
         <v>482</v>
       </c>
       <c r="Y140" s="6"/>
@@ -13620,7 +13637,7 @@
       <c r="W141" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="X141" s="6" t="s">
+      <c r="X141" s="27" t="s">
         <v>485</v>
       </c>
       <c r="Y141" s="6"/>
@@ -14073,7 +14090,7 @@
       <c r="D147" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="28" t="s">
         <v>317</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -14150,7 +14167,7 @@
       <c r="D148" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="28" t="s">
         <v>317</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -14554,7 +14571,7 @@
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="6"/>
-      <c r="N153" s="27" t="s">
+      <c r="N153" s="29" t="s">
         <v>523</v>
       </c>
       <c r="O153" s="11"/>
@@ -14570,7 +14587,7 @@
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
-      <c r="X153" s="27" t="s">
+      <c r="X153" s="29" t="s">
         <v>523</v>
       </c>
       <c r="Y153" s="6"/>
@@ -14614,13 +14631,13 @@
       <c r="D154" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="F154" s="26" t="s">
+      <c r="F154" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="G154" s="26" t="s">
+      <c r="G154" s="28" t="s">
         <v>527</v>
       </c>
       <c r="H154" s="6" t="s">
@@ -14653,7 +14670,7 @@
       <c r="AC154" s="6"/>
       <c r="AD154" s="6"/>
       <c r="AE154" s="9"/>
-      <c r="AF154" s="28"/>
+      <c r="AF154" s="30"/>
       <c r="AG154" s="6"/>
       <c r="AH154" s="6"/>
       <c r="AI154" s="6"/>
@@ -14718,7 +14735,7 @@
       <c r="AC155" s="6"/>
       <c r="AD155" s="6"/>
       <c r="AE155" s="9"/>
-      <c r="AF155" s="28"/>
+      <c r="AF155" s="30"/>
       <c r="AG155" s="6"/>
       <c r="AH155" s="6"/>
       <c r="AI155" s="6"/>
@@ -14744,13 +14761,13 @@
       <c r="D156" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F156" s="26" t="s">
+      <c r="F156" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="G156" s="26" t="s">
+      <c r="G156" s="28" t="s">
         <v>508</v>
       </c>
       <c r="H156" s="6" t="s">
@@ -14787,7 +14804,7 @@
       <c r="AC156" s="6"/>
       <c r="AD156" s="6"/>
       <c r="AE156" s="9"/>
-      <c r="AF156" s="28"/>
+      <c r="AF156" s="30"/>
       <c r="AG156" s="6"/>
       <c r="AH156" s="6"/>
       <c r="AI156" s="6"/>
@@ -14813,13 +14830,13 @@
       <c r="D157" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F157" s="26" t="s">
+      <c r="F157" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="G157" s="26" t="s">
+      <c r="G157" s="28" t="s">
         <v>508</v>
       </c>
       <c r="H157" s="6" t="s">
@@ -14856,7 +14873,7 @@
       <c r="AC157" s="6"/>
       <c r="AD157" s="6"/>
       <c r="AE157" s="9"/>
-      <c r="AF157" s="28"/>
+      <c r="AF157" s="30"/>
       <c r="AG157" s="6"/>
       <c r="AH157" s="6"/>
       <c r="AI157" s="6"/>
@@ -14882,13 +14899,13 @@
       <c r="D158" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F158" s="26" t="s">
+      <c r="F158" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="G158" s="26" t="s">
+      <c r="G158" s="28" t="s">
         <v>508</v>
       </c>
       <c r="H158" s="6" t="s">
@@ -14925,7 +14942,7 @@
       <c r="AC158" s="6"/>
       <c r="AD158" s="6"/>
       <c r="AE158" s="9"/>
-      <c r="AF158" s="28"/>
+      <c r="AF158" s="30"/>
       <c r="AG158" s="6"/>
       <c r="AH158" s="6"/>
       <c r="AI158" s="6"/>
@@ -14951,13 +14968,13 @@
       <c r="D159" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F159" s="26" t="s">
+      <c r="F159" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="G159" s="26" t="s">
+      <c r="G159" s="28" t="s">
         <v>508</v>
       </c>
       <c r="H159" s="6" t="s">
@@ -14994,7 +15011,7 @@
       <c r="AC159" s="6"/>
       <c r="AD159" s="6"/>
       <c r="AE159" s="9"/>
-      <c r="AF159" s="28"/>
+      <c r="AF159" s="30"/>
       <c r="AG159" s="6"/>
       <c r="AH159" s="6"/>
       <c r="AI159" s="6"/>
@@ -15020,13 +15037,13 @@
       <c r="D160" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="F160" s="26" t="s">
+      <c r="F160" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="G160" s="26" t="s">
+      <c r="G160" s="28" t="s">
         <v>546</v>
       </c>
       <c r="H160" s="6" t="s">
@@ -15059,7 +15076,7 @@
       <c r="AC160" s="6"/>
       <c r="AD160" s="6"/>
       <c r="AE160" s="9"/>
-      <c r="AF160" s="28"/>
+      <c r="AF160" s="30"/>
       <c r="AG160" s="6"/>
       <c r="AH160" s="6"/>
       <c r="AI160" s="6"/>
@@ -15085,13 +15102,13 @@
       <c r="D161" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="F161" s="26" t="s">
+      <c r="F161" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="G161" s="28" t="s">
         <v>552</v>
       </c>
       <c r="H161" s="6" t="s">
@@ -15124,7 +15141,7 @@
       <c r="AC161" s="6"/>
       <c r="AD161" s="6"/>
       <c r="AE161" s="9"/>
-      <c r="AF161" s="28"/>
+      <c r="AF161" s="30"/>
       <c r="AG161" s="6"/>
       <c r="AH161" s="6"/>
       <c r="AI161" s="6"/>
@@ -15150,13 +15167,13 @@
       <c r="D162" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="F162" s="26" t="s">
+      <c r="F162" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="28" t="s">
         <v>556</v>
       </c>
       <c r="H162" s="6" t="s">
@@ -15217,13 +15234,13 @@
       <c r="D163" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="F163" s="26" t="s">
+      <c r="F163" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="G163" s="26" t="s">
+      <c r="G163" s="28" t="s">
         <v>562</v>
       </c>
       <c r="H163" s="6" t="s">
@@ -15284,13 +15301,13 @@
       <c r="D164" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F164" s="26" t="s">
+      <c r="F164" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G164" s="26" t="s">
+      <c r="G164" s="28" t="s">
         <v>567</v>
       </c>
       <c r="H164" s="6" t="s">
@@ -15353,13 +15370,13 @@
       <c r="D165" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F165" s="26" t="s">
+      <c r="F165" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G165" s="26" t="s">
+      <c r="G165" s="28" t="s">
         <v>567</v>
       </c>
       <c r="H165" s="6" t="s">
@@ -15422,13 +15439,13 @@
       <c r="D166" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E166" s="26" t="s">
+      <c r="E166" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F166" s="26" t="s">
+      <c r="F166" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G166" s="26" t="s">
+      <c r="G166" s="28" t="s">
         <v>567</v>
       </c>
       <c r="H166" s="6" t="s">
@@ -15443,7 +15460,7 @@
       <c r="M166" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N166" s="29" t="s">
+      <c r="N166" s="31" t="s">
         <v>570</v>
       </c>
       <c r="O166" s="6"/>
@@ -15491,13 +15508,13 @@
       <c r="D167" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E167" s="26" t="s">
+      <c r="E167" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F167" s="26" t="s">
+      <c r="F167" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G167" s="26" t="s">
+      <c r="G167" s="28" t="s">
         <v>567</v>
       </c>
       <c r="H167" s="6" t="s">
@@ -15512,7 +15529,7 @@
       <c r="M167" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N167" s="29" t="s">
+      <c r="N167" s="31" t="s">
         <v>571</v>
       </c>
       <c r="O167" s="6"/>
@@ -15560,11 +15577,11 @@
       <c r="D168" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26" t="s">
+      <c r="E168" s="28"/>
+      <c r="F168" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="G168" s="26" t="s">
+      <c r="G168" s="28" t="s">
         <v>573</v>
       </c>
       <c r="H168" s="6" t="s">
@@ -15577,7 +15594,7 @@
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="6"/>
-      <c r="N168" s="29"/>
+      <c r="N168" s="31"/>
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
@@ -15595,7 +15612,7 @@
       <c r="AA168" s="6"/>
       <c r="AB168" s="6"/>
       <c r="AC168" s="6"/>
-      <c r="AD168" s="30"/>
+      <c r="AD168" s="32"/>
       <c r="AE168" s="6"/>
       <c r="AF168" s="6"/>
       <c r="AG168" s="6"/>
